--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi4-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi4-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Lgi4</t>
+  </si>
+  <si>
+    <t>Adam23</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Lgi4</t>
-  </si>
-  <si>
-    <t>Adam23</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>10.326286</v>
+      </c>
+      <c r="H2">
+        <v>30.978858</v>
+      </c>
+      <c r="I2">
+        <v>0.5836270415642173</v>
+      </c>
+      <c r="J2">
+        <v>0.5836270415642173</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.03034166666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.09102499999999999</v>
-      </c>
-      <c r="I2">
-        <v>0.002265018822860075</v>
-      </c>
-      <c r="J2">
-        <v>0.002265018822860075</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.03926266666666667</v>
+        <v>0.022792</v>
       </c>
       <c r="N2">
-        <v>0.117788</v>
+        <v>0.06837600000000001</v>
       </c>
       <c r="O2">
-        <v>0.005313231574131687</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="P2">
-        <v>0.005313231574131686</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="Q2">
-        <v>0.001191294744444445</v>
+        <v>0.235356710512</v>
       </c>
       <c r="R2">
-        <v>0.0107216527</v>
+        <v>2.118210394608</v>
       </c>
       <c r="S2">
-        <v>1.203456952562274E-05</v>
+        <v>0.001118420791597207</v>
       </c>
       <c r="T2">
-        <v>1.203456952562274E-05</v>
+        <v>0.001118420791597207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03034166666666667</v>
+        <v>10.326286</v>
       </c>
       <c r="H3">
-        <v>0.09102499999999999</v>
+        <v>30.978858</v>
       </c>
       <c r="I3">
-        <v>0.002265018822860075</v>
+        <v>0.5836270415642173</v>
       </c>
       <c r="J3">
-        <v>0.002265018822860075</v>
+        <v>0.5836270415642173</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>13.206284</v>
       </c>
       <c r="O3">
-        <v>0.5957147173375057</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="P3">
-        <v>0.5957147173375056</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="Q3">
-        <v>0.1335668890111111</v>
+        <v>45.45728852707467</v>
       </c>
       <c r="R3">
-        <v>1.2021020011</v>
+        <v>409.115596743672</v>
       </c>
       <c r="S3">
-        <v>0.00134930504782422</v>
+        <v>0.216014136617198</v>
       </c>
       <c r="T3">
-        <v>0.001349305047824219</v>
+        <v>0.216014136617198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03034166666666667</v>
+        <v>10.326286</v>
       </c>
       <c r="H4">
-        <v>0.09102499999999999</v>
+        <v>30.978858</v>
       </c>
       <c r="I4">
-        <v>0.002265018822860075</v>
+        <v>0.5836270415642173</v>
       </c>
       <c r="J4">
-        <v>0.002265018822860075</v>
+        <v>0.5836270415642173</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.948244666666667</v>
+        <v>7.468693666666667</v>
       </c>
       <c r="N4">
-        <v>8.844734000000001</v>
+        <v>22.406081</v>
       </c>
       <c r="O4">
-        <v>0.3989720510883627</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="P4">
-        <v>0.3989720510883626</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="Q4">
-        <v>0.08945465692777779</v>
+        <v>77.12386684838866</v>
       </c>
       <c r="R4">
-        <v>0.80509191235</v>
+        <v>694.114801635498</v>
       </c>
       <c r="S4">
-        <v>0.0009036792055102332</v>
+        <v>0.3664944841554221</v>
       </c>
       <c r="T4">
-        <v>0.0009036792055102329</v>
+        <v>0.3664944841554221</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.326286</v>
+        <v>7.367010000000001</v>
       </c>
       <c r="H5">
-        <v>30.978858</v>
+        <v>22.10103</v>
       </c>
       <c r="I5">
-        <v>0.7708618124768957</v>
+        <v>0.4163729584357827</v>
       </c>
       <c r="J5">
-        <v>0.7708618124768957</v>
+        <v>0.4163729584357828</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03926266666666667</v>
+        <v>0.022792</v>
       </c>
       <c r="N5">
-        <v>0.117788</v>
+        <v>0.06837600000000001</v>
       </c>
       <c r="O5">
-        <v>0.005313231574131687</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="P5">
-        <v>0.005313231574131686</v>
+        <v>0.001916327914826657</v>
       </c>
       <c r="Q5">
-        <v>0.4054375251226667</v>
+        <v>0.16790889192</v>
       </c>
       <c r="R5">
-        <v>3.648937726104</v>
+        <v>1.51118002728</v>
       </c>
       <c r="S5">
-        <v>0.004095767321344622</v>
+        <v>0.0007979071232294498</v>
       </c>
       <c r="T5">
-        <v>0.004095767321344621</v>
+        <v>0.0007979071232294499</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.326286</v>
+        <v>7.367010000000001</v>
       </c>
       <c r="H6">
-        <v>30.978858</v>
+        <v>22.10103</v>
       </c>
       <c r="I6">
-        <v>0.7708618124768957</v>
+        <v>0.4163729584357827</v>
       </c>
       <c r="J6">
-        <v>0.7708618124768957</v>
+        <v>0.4163729584357828</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>13.206284</v>
       </c>
       <c r="O6">
-        <v>0.5957147173375057</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="P6">
-        <v>0.5957147173375056</v>
+        <v>0.3701235913233977</v>
       </c>
       <c r="Q6">
-        <v>45.45728852707467</v>
+        <v>32.43027543028001</v>
       </c>
       <c r="R6">
-        <v>409.115596743672</v>
+        <v>291.87247887252</v>
       </c>
       <c r="S6">
-        <v>0.4592137267259512</v>
+        <v>0.1541094547061997</v>
       </c>
       <c r="T6">
-        <v>0.4592137267259511</v>
+        <v>0.1541094547061997</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.326286</v>
+        <v>7.367010000000001</v>
       </c>
       <c r="H7">
-        <v>30.978858</v>
+        <v>22.10103</v>
       </c>
       <c r="I7">
-        <v>0.7708618124768957</v>
+        <v>0.4163729584357827</v>
       </c>
       <c r="J7">
-        <v>0.7708618124768957</v>
+        <v>0.4163729584357828</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.948244666666667</v>
+        <v>7.468693666666667</v>
       </c>
       <c r="N7">
-        <v>8.844734000000001</v>
+        <v>22.406081</v>
       </c>
       <c r="O7">
-        <v>0.3989720510883627</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="P7">
-        <v>0.3989720510883626</v>
+        <v>0.6279600807617757</v>
       </c>
       <c r="Q7">
-        <v>30.44441762597467</v>
+        <v>55.02194092927</v>
       </c>
       <c r="R7">
-        <v>273.999758633772</v>
+        <v>495.1974683634301</v>
       </c>
       <c r="S7">
-        <v>0.3075523184295999</v>
+        <v>0.2614655966063535</v>
       </c>
       <c r="T7">
-        <v>0.3075523184295998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3.039140333333334</v>
-      </c>
-      <c r="H8">
-        <v>9.117421</v>
-      </c>
-      <c r="I8">
-        <v>0.2268731687002442</v>
-      </c>
-      <c r="J8">
-        <v>0.2268731687002443</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.03926266666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.117788</v>
-      </c>
-      <c r="O8">
-        <v>0.005313231574131687</v>
-      </c>
-      <c r="P8">
-        <v>0.005313231574131686</v>
-      </c>
-      <c r="Q8">
-        <v>0.1193247538608889</v>
-      </c>
-      <c r="R8">
-        <v>1.073922784748</v>
-      </c>
-      <c r="S8">
-        <v>0.001205429683261442</v>
-      </c>
-      <c r="T8">
-        <v>0.001205429683261442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.039140333333334</v>
-      </c>
-      <c r="H9">
-        <v>9.117421</v>
-      </c>
-      <c r="I9">
-        <v>0.2268731687002442</v>
-      </c>
-      <c r="J9">
-        <v>0.2268731687002443</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.402094666666667</v>
-      </c>
-      <c r="N9">
-        <v>13.206284</v>
-      </c>
-      <c r="O9">
-        <v>0.5957147173375057</v>
-      </c>
-      <c r="P9">
-        <v>0.5957147173375056</v>
-      </c>
-      <c r="Q9">
-        <v>13.37858345261822</v>
-      </c>
-      <c r="R9">
-        <v>120.407251073564</v>
-      </c>
-      <c r="S9">
-        <v>0.1351516855637303</v>
-      </c>
-      <c r="T9">
-        <v>0.1351516855637302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3.039140333333334</v>
-      </c>
-      <c r="H10">
-        <v>9.117421</v>
-      </c>
-      <c r="I10">
-        <v>0.2268731687002442</v>
-      </c>
-      <c r="J10">
-        <v>0.2268731687002443</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.948244666666667</v>
-      </c>
-      <c r="N10">
-        <v>8.844734000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.3989720510883627</v>
-      </c>
-      <c r="P10">
-        <v>0.3989720510883626</v>
-      </c>
-      <c r="Q10">
-        <v>8.960129279001558</v>
-      </c>
-      <c r="R10">
-        <v>80.64116351101401</v>
-      </c>
-      <c r="S10">
-        <v>0.09051605345325257</v>
-      </c>
-      <c r="T10">
-        <v>0.09051605345325256</v>
+        <v>0.2614655966063536</v>
       </c>
     </row>
   </sheetData>
